--- a/QA/Mobile Testing/Mobile testing.xlsx
+++ b/QA/Mobile Testing/Mobile testing.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA0ED53-6305-4489-8888-D5C293088DEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
     <sheet name="web-site" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -144,11 +143,214 @@
 3- In the appeared window found section "Sort by" in the drop menu select "Prise- Low to High"
 4- See the correctness of the goods sorting</t>
   </si>
+  <si>
+    <t>Add a profile photo to your account settings</t>
+  </si>
+  <si>
+    <t>Precondition:
+Run application "Amazon"
+STR:
+1- Make a swipe right
+2- In the open menu, click on the link to your account (HELLO, [username])
+3- Click on the icon with the image of the person and in the opened pop-up window press "Add a photo"
+4- From the offered list select the camera item, take a picture and press the button "Done"
+5- Please note whether the profile icon has changed to the photo you added</t>
+  </si>
+  <si>
+    <t>1- The menu was opened
+2- After clicking on the button, the profile page was opened
+3- After clicking a pop-up window opens with the button to add a picture, after clicking on it opens a list of applications through which you can add a picture
+4- The camera was opened, the photo taken started loading after pressing the button "Done"
+5- Uploaded photo is displayed on profile</t>
+  </si>
+  <si>
+    <t>Add a photo for the background in your profile</t>
+  </si>
+  <si>
+    <t>1- The menu was opened
+2- After clicking on the button, the profile page was opened
+3- After clicking a pop-up window opens with the button to add a picture, after clicking on it opens a list of applications through which you can add a picture
+4- The camera was opened, the photo taken started loading after pressing the button "Save"
+5- Uploaded photo is displayed on profile</t>
+  </si>
+  <si>
+    <t>Precondition:
+Run application "Amazon"
+STR:
+1- Make a swipe right
+2- In the open menu, click on the link to your account (HELLO, [username])
+3- Click on the background and in the opened pop-up window press "Add a photo"
+4- From the offered list select the camera item, take a picture and press the button "Save"
+5- See if the profile background has changed</t>
+  </si>
+  <si>
+    <t>Сhange E-mail in your account settings</t>
+  </si>
+  <si>
+    <t>Precondition:
+Run application "Amazon"
+STR:
+1- Make a swipe right
+2- In the open menu, click on the link to your account (HELLO, [username])
+3- Click on the button "Edite profile"
+4- In the open window find the input field with the name "E-mail address", enter a valid email (support@example.com) and press  button "Save"
+5- Сheck if the entered data is saved</t>
+  </si>
+  <si>
+    <t>1- The menu was opened
+2- After clicking on the button, the profile page was opened
+3- After clicking on the button, the edit profile page was opened
+4- The entered data was saved after pressing the button "Save"
+5- Uploaded data is displayed on profile</t>
+  </si>
+  <si>
+    <t>Precondition:
+Run application "Amazon"
+STR:
+1- Make a swipe right
+2- In the open menu, click on the link to your account (HELLO, [username])
+3- Click on the button "Edite profile"
+4- In the open window find the input field with the name "location", enter a valid data (Ukraine, Kharkiv, Serpovaja 23) and press  button "Save"
+5- Сheck if the entered data is saved</t>
+  </si>
+  <si>
+    <t>Precondition:
+Run application "Amazon"
+STR:
+1- Make a swipe right
+2- In the open menu, click on the link to your account (HELLO, [username])
+3- Click on the button "Edite profile"
+4- In the open window find the input field with the name "Facebook", enter a valid email (http://facebook.com/...) and press  button "Save"
+5- Сheck if the entered data is saved</t>
+  </si>
+  <si>
+    <t>Precondition:
+Run application "Amazon"
+STR:
+1- Make a swipe right
+2- In the open menu, click on the link to your account (HELLO, [username])
+3- Click on the button "Edite profile"
+4- In the open window find the input field with the name "YouTube", enter a valid email (http://youtube.com/...) and press  button "Save"
+5- Сheck if the entered data is saved</t>
+  </si>
+  <si>
+    <t>Сhange Location in your account settings</t>
+  </si>
+  <si>
+    <t>Сhange Facebook in your account settings</t>
+  </si>
+  <si>
+    <t>СhangeYouTube in your account settings</t>
+  </si>
+  <si>
+    <t>WS_1</t>
+  </si>
+  <si>
+    <t>WS_2</t>
+  </si>
+  <si>
+    <t>WS_3</t>
+  </si>
+  <si>
+    <t>WS_4</t>
+  </si>
+  <si>
+    <t>WS_5</t>
+  </si>
+  <si>
+    <t>Phone - MEIZU M3s
+Andriod version - 5.1 (lollipop)
+Flyme version - 6.7.4.11G beta
+Browser: Chrome</t>
+  </si>
+  <si>
+    <t>Checking to switch to landscape mode</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+STR:
+1- Rotate the phone to landscape mode
+2- See if the items on the site are displayed correctly</t>
+  </si>
+  <si>
+    <t>1- After turning the screen elements of the site are adjusted for a new extension
+2- All the elements on the site are displayed correctly</t>
+  </si>
+  <si>
+    <t>Checking "Zoom in"</t>
+  </si>
+  <si>
+    <t>1- Page approached
+2- Elements on the site increased and a horizontal scroll bar appeared</t>
+  </si>
+  <si>
+    <t>Scrolls the page using swipe down</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+STR:
+1- Swipe down in the webpage
+2- See result</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+STR:
+1- Zoom in the webpage
+2- See result</t>
+  </si>
+  <si>
+    <t>1- Scrolling works page
+2- Scrolling the page works correctly</t>
+  </si>
+  <si>
+    <t>Verify the use of the virtual keyboard</t>
+  </si>
+  <si>
+    <t>Сheck the operation of the drop-down menu</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+STR:
+1- Press the menu button
+2- See result</t>
+  </si>
+  <si>
+    <t>1- The button is pressed and the menu is displayed.
+2- The open menu is displayed correctly</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+STR:
+1- Press the menu button
+2- Click on the input field "Search apple.com"
+3- See if the virtual keyboard appeared</t>
+  </si>
+  <si>
+    <t>1- The button is pressed and the menu is displayed.
+2- The selected input field became active
+3- There was a virtual keyboard</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,13 +422,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -242,10 +440,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ввод " xfId="1" builtinId="20"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,7 +513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -338,7 +548,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -515,18 +725,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,267 +746,303 @@
     <col min="4" max="4" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -805,13 +1051,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132BE634-EFCA-48D5-BA07-C9CE340677DB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QA/Mobile Testing/Mobile testing.xlsx
+++ b/QA/Mobile Testing/Mobile testing.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD31EA7A-486E-428C-83F4-81DDC6E3D219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -258,99 +259,99 @@
     <t>WS_5</t>
   </si>
   <si>
+    <t>Checking to switch to landscape mode</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+STR:
+1- Rotate the phone to landscape mode
+2- See if the items on the site are displayed correctly</t>
+  </si>
+  <si>
+    <t>1- After turning the screen elements of the site are adjusted for a new extension
+2- All the elements on the site are displayed correctly</t>
+  </si>
+  <si>
+    <t>Checking "Zoom in"</t>
+  </si>
+  <si>
+    <t>1- Page approached
+2- Elements on the site increased and a horizontal scroll bar appeared</t>
+  </si>
+  <si>
+    <t>Scrolls the page using swipe down</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+STR:
+1- Swipe down in the webpage
+2- See result</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+STR:
+1- Zoom in the webpage
+2- See result</t>
+  </si>
+  <si>
+    <t>1- Scrolling works page
+2- Scrolling the page works correctly</t>
+  </si>
+  <si>
+    <t>Verify the use of the virtual keyboard</t>
+  </si>
+  <si>
+    <t>Сheck the operation of the drop-down menu</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+STR:
+1- Press the menu button
+2- See result</t>
+  </si>
+  <si>
+    <t>1- The button is pressed and the menu is displayed.
+2- The open menu is displayed correctly</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+STR:
+1- Press the menu button
+2- Click on the input field "Search apple.com"
+3- See if the virtual keyboard appeared</t>
+  </si>
+  <si>
+    <t>1- The button is pressed and the menu is displayed.
+2- The selected input field became active
+3- There was a virtual keyboard</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
     <t>Phone - MEIZU M3s
 Andriod version - 5.1 (lollipop)
 Flyme version - 6.7.4.11G beta
-Browser: Chrome</t>
-  </si>
-  <si>
-    <t>Checking to switch to landscape mode</t>
-  </si>
-  <si>
-    <t>Precondition:
-1- Enable auto-rotate screen on your phone
-2- Open a website "https://apple.com"
-STR:
-1- Rotate the phone to landscape mode
-2- See if the items on the site are displayed correctly</t>
-  </si>
-  <si>
-    <t>1- After turning the screen elements of the site are adjusted for a new extension
-2- All the elements on the site are displayed correctly</t>
-  </si>
-  <si>
-    <t>Checking "Zoom in"</t>
-  </si>
-  <si>
-    <t>1- Page approached
-2- Elements on the site increased and a horizontal scroll bar appeared</t>
-  </si>
-  <si>
-    <t>Scrolls the page using swipe down</t>
-  </si>
-  <si>
-    <t>Precondition:
-1- Enable auto-rotate screen on your phone
-2- Open a website "https://apple.com"
-STR:
-1- Swipe down in the webpage
-2- See result</t>
-  </si>
-  <si>
-    <t>Precondition:
-1- Enable auto-rotate screen on your phone
-2- Open a website "https://apple.com"
-STR:
-1- Zoom in the webpage
-2- See result</t>
-  </si>
-  <si>
-    <t>1- Scrolling works page
-2- Scrolling the page works correctly</t>
-  </si>
-  <si>
-    <t>Verify the use of the virtual keyboard</t>
-  </si>
-  <si>
-    <t>Сheck the operation of the drop-down menu</t>
-  </si>
-  <si>
-    <t>Precondition:
-1- Enable auto-rotate screen on your phone
-2- Open a website "https://apple.com"
-STR:
-1- Press the menu button
-2- See result</t>
-  </si>
-  <si>
-    <t>1- The button is pressed and the menu is displayed.
-2- The open menu is displayed correctly</t>
-  </si>
-  <si>
-    <t>Precondition:
-1- Enable auto-rotate screen on your phone
-2- Open a website "https://apple.com"
-STR:
-1- Press the menu button
-2- Click on the input field "Search apple.com"
-3- See if the virtual keyboard appeared</t>
-  </si>
-  <si>
-    <t>1- The button is pressed and the menu is displayed.
-2- The selected input field became active
-3- There was a virtual keyboard</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Medium</t>
+Browser: Chrome 69.0.3497.100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,8 +455,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Ввод " xfId="1" builtinId="20"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -725,14 +726,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1051,11 +1052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,25 +1100,25 @@
         <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1125,16 +1126,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -1143,7 +1144,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1151,13 +1152,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1169,7 +1170,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1177,13 +1178,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1195,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -1203,13 +1204,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1221,7 +1222,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/QA/Mobile Testing/Mobile testing.xlsx
+++ b/QA/Mobile Testing/Mobile testing.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD31EA7A-486E-428C-83F4-81DDC6E3D219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB34085-7754-4339-995A-F51DEA7C9D8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -262,14 +262,6 @@
     <t>Checking to switch to landscape mode</t>
   </si>
   <si>
-    <t>Precondition:
-1- Enable auto-rotate screen on your phone
-2- Open a website "https://apple.com"
-STR:
-1- Rotate the phone to landscape mode
-2- See if the items on the site are displayed correctly</t>
-  </si>
-  <si>
     <t>1- After turning the screen elements of the site are adjusted for a new extension
 2- All the elements on the site are displayed correctly</t>
   </si>
@@ -284,22 +276,6 @@
     <t>Scrolls the page using swipe down</t>
   </si>
   <si>
-    <t>Precondition:
-1- Enable auto-rotate screen on your phone
-2- Open a website "https://apple.com"
-STR:
-1- Swipe down in the webpage
-2- See result</t>
-  </si>
-  <si>
-    <t>Precondition:
-1- Enable auto-rotate screen on your phone
-2- Open a website "https://apple.com"
-STR:
-1- Zoom in the webpage
-2- See result</t>
-  </si>
-  <si>
     <t>1- Scrolling works page
 2- Scrolling the page works correctly</t>
   </si>
@@ -310,25 +286,8 @@
     <t>Сheck the operation of the drop-down menu</t>
   </si>
   <si>
-    <t>Precondition:
-1- Enable auto-rotate screen on your phone
-2- Open a website "https://apple.com"
-STR:
-1- Press the menu button
-2- See result</t>
-  </si>
-  <si>
     <t>1- The button is pressed and the menu is displayed.
 2- The open menu is displayed correctly</t>
-  </si>
-  <si>
-    <t>Precondition:
-1- Enable auto-rotate screen on your phone
-2- Open a website "https://apple.com"
-STR:
-1- Press the menu button
-2- Click on the input field "Search apple.com"
-3- See if the virtual keyboard appeared</t>
   </si>
   <si>
     <t>1- The button is pressed and the menu is displayed.
@@ -346,13 +305,404 @@
 Andriod version - 5.1 (lollipop)
 Flyme version - 6.7.4.11G beta
 Browser: Chrome 69.0.3497.100</t>
+  </si>
+  <si>
+    <t>Checking the site for the ability to adjust to different screen extensions</t>
+  </si>
+  <si>
+    <t>WS_6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Open a website "https://apple.com"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1- Press the menu button
+2- Click on the input field "Search apple.com"
+3- See if the virtual keyboard appeared</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Open a website "https://apple.com"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Press the menu button
+2- See result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Precondition:
+1- Open a website "https://apple.com"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Swipe down in the webpage
+2- See result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Open a website "https://apple.com"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Zoom in the webpage
+2- See result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Enable auto-rotate screen on your phone
+2- Open a website "https://apple.com"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Rotate the phone to landscape mode
+2- See if the items on the site are displayed correctly</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Open a website "https://apple.com" in the browser "Chrome" on the desktop
+2- The Toggle devise toolbar has opened in this webpage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Set the screen width to 320px and view the display of elements on the page
+2- Change the screen width to 520px (in the width entry field) and look at the correctness of the display elements on the page
+3- Change the screen width to 520px (in the width entry field) and look at the correctness of the display elements on the page</t>
+    </r>
+  </si>
+  <si>
+    <t>1- All elements on the page are displayed correctly, the horizontal scroll bar is missing, all data is readable.
+2- Screen width has changed and all elements on the page are displayed correctly, the horizontal scroll bar is missing, all data is readable.
+3- Screen width has changed and all elements on the page are displayed correctly, the horizontal scroll bar is missing, all data is readable.</t>
+  </si>
+  <si>
+    <t>Desktop
+System - Win 10
+Browser: Chrome 69.0</t>
+  </si>
+  <si>
+    <t>WS_7</t>
+  </si>
+  <si>
+    <t>Check on the site display during display emulation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Open a website "https://apple.com" in the browser "Chrome" on the desktop
+2- The Toggle devise toolbar has opened in this webpage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select the display emulation "Iphone 5/SE" and check for the presence of a horizontal scroll bar, readability of information on the site and the correct display of content
+2- Select the display emulation "Iphone 6/7/8" and check for the presence of a horizontal scroll bar, readability of information on the site and the correct display of content
+3- Select the display emulation "Iphone X" and check for the presence of a horizontal scroll bar, readability of information on the site and the correct display of content</t>
+    </r>
+  </si>
+  <si>
+    <t>1- The contact is displayed correctly, the information on the site is readable, there is no horizontal scroll bar, all elements are displayed.
+2- The contact is displayed correctly, the information on the site is readable, there is no horizontal scroll bar, all elements are displayed.
+3- The contact is displayed correctly, the information on the site is readable, there is no horizontal scroll bar, all elements are displayed.</t>
+  </si>
+  <si>
+    <t>Desktop
+System - Win 10
+Browser: Chrome 69.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +729,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -423,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -451,6 +818,21 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1053,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,21 +1477,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -1118,24 +1500,24 @@
         <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -1144,21 +1526,21 @@
         <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1170,21 +1552,21 @@
         <v>21</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1196,21 +1578,21 @@
         <v>21</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1222,10 +1604,73 @@
         <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>